--- a/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
+++ b/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
@@ -8,30 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wooteco\java-onboarding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86E4D96-CD20-4BA0-913B-E2E90937EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C845E-4A9F-4A07-B515-EB39CA8A2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 week 기능목록정의서 리스트" sheetId="11" r:id="rId1"/>
     <sheet name="1번 기능목록 정의V1.0" sheetId="10" r:id="rId2"/>
     <sheet name="2번 기능목록 정의V1.0" sheetId="12" r:id="rId3"/>
     <sheet name="3번 기능목록 정의V1.0" sheetId="13" r:id="rId4"/>
+    <sheet name="4번 기능목록 정의V1.0" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'3번 기능목록 정의V1.0'!$15:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'4번 기능목록 정의V1.0'!$15:$15</definedName>
   </definedNames>
   <calcPr calcId="80000" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +333,30 @@
   </si>
   <si>
     <t>포함 개수 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청개구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대, 소문자 판독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대, 소문자 구별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구별 후 결과 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파벳 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청개구리 사전을 참고해 알파벳 변환 후 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1458,7 @@
   <dimension ref="B11:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -1511,8 +1538,12 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="26">
+        <v>44863</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86CA605-CCE0-4292-9A3A-4C06BBD28EB6}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -2268,4 +2299,226 @@
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1805768-D953-4682-ADD2-F65D23A53A41}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A15:F15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.64" right="0.61" top="0.26" bottom="0.33" header="0.2" footer="0.26"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
+++ b/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wooteco\java-onboarding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C845E-4A9F-4A07-B515-EB39CA8A2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF59CEE-6915-4420-ACAD-2FF342CF4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>청개구리 사전을 참고해 알파벳 변환 후 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청개구리 사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전값 리턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2307,7 +2315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -2503,9 +2511,15 @@
     <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
+++ b/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wooteco\java-onboarding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF59CEE-6915-4420-ACAD-2FF342CF4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCDE54-B2EF-48C1-A78D-C8B4923551DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 week 기능목록정의서 리스트" sheetId="11" r:id="rId1"/>
@@ -18,23 +18,26 @@
     <sheet name="2번 기능목록 정의V1.0" sheetId="12" r:id="rId3"/>
     <sheet name="3번 기능목록 정의V1.0" sheetId="13" r:id="rId4"/>
     <sheet name="4번 기능목록 정의V1.0" sheetId="14" r:id="rId5"/>
+    <sheet name="5번 기능목록 정의V1.0" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'5번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'3번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'4번 기능목록 정의V1.0'!$15:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'5번 기능목록 정의V1.0'!$15:$15</definedName>
   </definedNames>
   <calcPr calcId="80000" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +368,22 @@
   </si>
   <si>
     <t>사전값 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청개구리 사전을 정의합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈 깨기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1466,7 +1485,7 @@
   <dimension ref="B11:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -1550,7 +1569,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="26">
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -1561,8 +1580,12 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="26">
+        <v>44865</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2313,9 +2336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1805768-D953-4682-ADD2-F65D23A53A41}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -2522,6 +2545,226 @@
       </c>
       <c r="F18" s="25"/>
     </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A15:F15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.64" right="0.61" top="0.26" bottom="0.33" header="0.2" footer="0.26"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89DADB-E10C-4CA2-B6F3-AA57821ECDE9}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
+++ b/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wooteco\java-onboarding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCDE54-B2EF-48C1-A78D-C8B4923551DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6DC8BA-5B93-462A-A895-4D7B4C6A4BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 week 기능목록정의서 리스트" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="3번 기능목록 정의V1.0" sheetId="13" r:id="rId4"/>
     <sheet name="4번 기능목록 정의V1.0" sheetId="14" r:id="rId5"/>
     <sheet name="5번 기능목록 정의V1.0" sheetId="15" r:id="rId6"/>
+    <sheet name="6번 기능목록 정의V1.0" sheetId="16" r:id="rId7"/>
+    <sheet name="7번 기능목록 정의V1.0" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
@@ -26,18 +28,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'5번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'6번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'7번 기능목록 정의V1.0'!$A$15:$F$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'3번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'4번 기능목록 정의V1.0'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'5번 기능목록 정의V1.0'!$15:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'6번 기능목록 정의V1.0'!$15:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'7번 기능목록 정의V1.0'!$15:$15</definedName>
   </definedNames>
   <calcPr calcId="80000" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +390,42 @@
   </si>
   <si>
     <t>2022.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈 교환 함수들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위에 맞춰 돈 교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈의 개수 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위가 많아 한번에 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 기능목록 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 기능목록 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번 기능목록 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번 기능목록 정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1485,7 +1527,7 @@
   <dimension ref="B11:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -1595,8 +1637,12 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="26">
+        <v>44865</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2338,7 +2384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2401,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2572,6 +2618,224 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89DADB-E10C-4CA2-B6F3-AA57821ECDE9}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A15:F15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.64" right="0.61" top="0.26" bottom="0.33" header="0.2" footer="0.26"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65488DF-E3A9-47AC-AA09-3FE874457BCE}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2593,7 +2857,217 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A15:F15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.64" right="0.61" top="0.26" bottom="0.33" header="0.2" footer="0.26"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E04535-2A3C-4539-BC63-C84491425719}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>

--- a/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
+++ b/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wooteco\java-onboarding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6DC8BA-5B93-462A-A895-4D7B4C6A4BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF41C1-5B20-4DB0-91DF-6B6D80E487D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 week 기능목록정의서 리스트" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,50 @@
   </si>
   <si>
     <t>7번 기능목록 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 중복삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일들의 중복 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복이 삭제된 이메일 리스트 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크루초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크루들 명단 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크루 명단을 받아 Map형식으로 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임중복체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임이 중복인 이메일 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 닉네임의 이메일 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1526,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -1652,8 +1696,12 @@
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="26">
+        <v>44866</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2838,9 +2886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65488DF-E3A9-47AC-AA09-3FE874457BCE}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -3008,25 +3056,43 @@
     <row r="16" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3050,7 +3116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,7 +3179,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>

--- a/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
+++ b/docs/1주차 기능목록정의V1.0(2022-1101, 박찬영).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wooteco\java-onboarding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF41C1-5B20-4DB0-91DF-6B6D80E487D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C6866-5565-4972-A280-CDC8743BD75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 week 기능목록정의서 리스트" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="132">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,101 @@
   </si>
   <si>
     <t>친구추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 추천 점수 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 계산 후 Map에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천점수 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5등까지의 점수 계산 후 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0점은 명단 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreInitial</t>
+  </si>
+  <si>
+    <t>usersFriendsList</t>
+  </si>
+  <si>
+    <t>부속기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highestScoreOf5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 친구 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 친구들 리스트로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extractingList</t>
+  </si>
+  <si>
+    <t>유저의 친구의 친구 명단 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendScore</t>
+  </si>
+  <si>
+    <t>사용자와 함께 아는 친구 수 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자와 함께 아는 친구의 점수계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 점수에 10점 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>방문 점수 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 점수에 1점추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitingScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명단 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 순으로 내림차순 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수가 같을 시 이름 오름차순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +1040,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2886,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65488DF-E3A9-47AC-AA09-3FE874457BCE}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -3112,11 +3210,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E04535-2A3C-4539-BC63-C84491425719}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:D5"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -3126,7 +3224,7 @@
     <col min="3" max="3" width="14.09765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="32" style="5" customWidth="1"/>
     <col min="5" max="5" width="37.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.8984375" style="5"/>
   </cols>
@@ -3282,31 +3380,132 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A18" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A15:F15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
